--- a/results_template.xlsx
+++ b/results_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\note_\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6242DB06-C221-4624-8770-C432FBE1475B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{674556D1-7FAA-4A79-AE6C-8E78C0AA5F81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1212" yWindow="1332" windowWidth="21168" windowHeight="11028" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="failures_template" sheetId="1" r:id="rId1"/>
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1356" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1327" uniqueCount="128">
   <si>
     <t>Instructions: please create a new tab for your model. Add rows for multiple faults</t>
   </si>
@@ -431,9 +431,6 @@
   </si>
   <si>
     <t>TP</t>
-  </si>
-  <si>
-    <t>No alarm</t>
   </si>
   <si>
     <t>FN</t>
@@ -1605,6 +1602,7 @@
     <xf numFmtId="14" fontId="0" fillId="5" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="6" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1635,7 +1633,6 @@
     <xf numFmtId="0" fontId="8" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="6" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1898,32 +1895,32 @@
       <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A3" s="151" t="s">
+      <c r="A3" s="152" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="152"/>
-      <c r="C3" s="152"/>
-      <c r="D3" s="152"/>
-      <c r="E3" s="152"/>
-      <c r="F3" s="152"/>
-      <c r="G3" s="152"/>
-      <c r="H3" s="152"/>
-      <c r="I3" s="152"/>
+      <c r="B3" s="153"/>
+      <c r="C3" s="153"/>
+      <c r="D3" s="153"/>
+      <c r="E3" s="153"/>
+      <c r="F3" s="153"/>
+      <c r="G3" s="153"/>
+      <c r="H3" s="153"/>
+      <c r="I3" s="153"/>
     </row>
     <row r="4" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
-      <c r="D4" s="153" t="s">
+      <c r="D4" s="154" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="154"/>
-      <c r="F4" s="155"/>
-      <c r="G4" s="153" t="s">
+      <c r="E4" s="155"/>
+      <c r="F4" s="156"/>
+      <c r="G4" s="154" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="154"/>
-      <c r="I4" s="155"/>
+      <c r="H4" s="155"/>
+      <c r="I4" s="156"/>
       <c r="K4" s="3" t="s">
         <v>4</v>
       </c>
@@ -2175,32 +2172,32 @@
       <c r="I13" s="25"/>
     </row>
     <row r="15" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A15" s="151" t="s">
+      <c r="A15" s="152" t="s">
         <v>38</v>
       </c>
-      <c r="B15" s="152"/>
-      <c r="C15" s="152"/>
-      <c r="D15" s="152"/>
-      <c r="E15" s="152"/>
-      <c r="F15" s="152"/>
-      <c r="G15" s="152"/>
-      <c r="H15" s="152"/>
-      <c r="I15" s="152"/>
+      <c r="B15" s="153"/>
+      <c r="C15" s="153"/>
+      <c r="D15" s="153"/>
+      <c r="E15" s="153"/>
+      <c r="F15" s="153"/>
+      <c r="G15" s="153"/>
+      <c r="H15" s="153"/>
+      <c r="I15" s="153"/>
     </row>
     <row r="16" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
-      <c r="D16" s="153" t="s">
+      <c r="D16" s="154" t="s">
         <v>2</v>
       </c>
-      <c r="E16" s="154"/>
-      <c r="F16" s="156"/>
-      <c r="G16" s="153" t="s">
+      <c r="E16" s="155"/>
+      <c r="F16" s="157"/>
+      <c r="G16" s="154" t="s">
         <v>3</v>
       </c>
-      <c r="H16" s="154"/>
-      <c r="I16" s="155"/>
+      <c r="H16" s="155"/>
+      <c r="I16" s="156"/>
     </row>
     <row r="17" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
@@ -3387,32 +3384,32 @@
       <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A3" s="151" t="s">
+      <c r="A3" s="152" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="152"/>
-      <c r="C3" s="152"/>
-      <c r="D3" s="152"/>
-      <c r="E3" s="152"/>
-      <c r="F3" s="152"/>
-      <c r="G3" s="152"/>
-      <c r="H3" s="152"/>
-      <c r="I3" s="152"/>
+      <c r="B3" s="153"/>
+      <c r="C3" s="153"/>
+      <c r="D3" s="153"/>
+      <c r="E3" s="153"/>
+      <c r="F3" s="153"/>
+      <c r="G3" s="153"/>
+      <c r="H3" s="153"/>
+      <c r="I3" s="153"/>
     </row>
     <row r="4" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
-      <c r="D4" s="153" t="s">
+      <c r="D4" s="154" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="154"/>
-      <c r="F4" s="155"/>
-      <c r="G4" s="153" t="s">
+      <c r="E4" s="155"/>
+      <c r="F4" s="156"/>
+      <c r="G4" s="154" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="154"/>
-      <c r="I4" s="155"/>
+      <c r="H4" s="155"/>
+      <c r="I4" s="156"/>
     </row>
     <row r="5" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
@@ -3717,17 +3714,17 @@
       <c r="I23" s="25"/>
     </row>
     <row r="25" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A25" s="151" t="s">
+      <c r="A25" s="152" t="s">
         <v>38</v>
       </c>
-      <c r="B25" s="152"/>
-      <c r="C25" s="152"/>
-      <c r="D25" s="152"/>
-      <c r="E25" s="152"/>
-      <c r="F25" s="152"/>
-      <c r="G25" s="152"/>
-      <c r="H25" s="152"/>
-      <c r="I25" s="152"/>
+      <c r="B25" s="153"/>
+      <c r="C25" s="153"/>
+      <c r="D25" s="153"/>
+      <c r="E25" s="153"/>
+      <c r="F25" s="153"/>
+      <c r="G25" s="153"/>
+      <c r="H25" s="153"/>
+      <c r="I25" s="153"/>
       <c r="L25" s="33">
         <v>42903</v>
       </c>
@@ -3736,16 +3733,16 @@
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
-      <c r="D26" s="153" t="s">
+      <c r="D26" s="154" t="s">
         <v>2</v>
       </c>
-      <c r="E26" s="154"/>
-      <c r="F26" s="156"/>
-      <c r="G26" s="153" t="s">
+      <c r="E26" s="155"/>
+      <c r="F26" s="157"/>
+      <c r="G26" s="154" t="s">
         <v>3</v>
       </c>
-      <c r="H26" s="154"/>
-      <c r="I26" s="155"/>
+      <c r="H26" s="155"/>
+      <c r="I26" s="156"/>
       <c r="L26" s="33">
         <v>42979</v>
       </c>
@@ -5375,17 +5372,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="157" t="s">
+      <c r="A1" s="158" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="152"/>
-      <c r="C1" s="152"/>
-      <c r="D1" s="152"/>
-      <c r="E1" s="152"/>
-      <c r="F1" s="152"/>
-      <c r="G1" s="152"/>
-      <c r="H1" s="152"/>
-      <c r="I1" s="152"/>
+      <c r="B1" s="153"/>
+      <c r="C1" s="153"/>
+      <c r="D1" s="153"/>
+      <c r="E1" s="153"/>
+      <c r="F1" s="153"/>
+      <c r="G1" s="153"/>
+      <c r="H1" s="153"/>
+      <c r="I1" s="153"/>
       <c r="J1" s="38"/>
       <c r="K1" s="38"/>
       <c r="L1" s="38"/>
@@ -5396,16 +5393,16 @@
       <c r="A2" s="9"/>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
-      <c r="D2" s="158" t="s">
+      <c r="D2" s="159" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="154"/>
-      <c r="F2" s="155"/>
-      <c r="G2" s="159" t="s">
+      <c r="E2" s="155"/>
+      <c r="F2" s="156"/>
+      <c r="G2" s="160" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="154"/>
-      <c r="I2" s="155"/>
+      <c r="H2" s="155"/>
+      <c r="I2" s="156"/>
       <c r="J2" s="38"/>
       <c r="K2" s="38" t="s">
         <v>4</v>
@@ -5773,17 +5770,17 @@
       <c r="N12" s="38"/>
     </row>
     <row r="13" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="157" t="s">
+      <c r="A13" s="158" t="s">
         <v>66</v>
       </c>
-      <c r="B13" s="152"/>
-      <c r="C13" s="152"/>
-      <c r="D13" s="152"/>
-      <c r="E13" s="152"/>
-      <c r="F13" s="152"/>
-      <c r="G13" s="152"/>
-      <c r="H13" s="152"/>
-      <c r="I13" s="152"/>
+      <c r="B13" s="153"/>
+      <c r="C13" s="153"/>
+      <c r="D13" s="153"/>
+      <c r="E13" s="153"/>
+      <c r="F13" s="153"/>
+      <c r="G13" s="153"/>
+      <c r="H13" s="153"/>
+      <c r="I13" s="153"/>
       <c r="J13" s="38"/>
       <c r="K13" s="38"/>
       <c r="L13" s="38"/>
@@ -5794,16 +5791,16 @@
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
-      <c r="D14" s="158" t="s">
+      <c r="D14" s="159" t="s">
         <v>2</v>
       </c>
-      <c r="E14" s="154"/>
-      <c r="F14" s="156"/>
-      <c r="G14" s="158" t="s">
+      <c r="E14" s="155"/>
+      <c r="F14" s="157"/>
+      <c r="G14" s="159" t="s">
         <v>3</v>
       </c>
-      <c r="H14" s="154"/>
-      <c r="I14" s="155"/>
+      <c r="H14" s="155"/>
+      <c r="I14" s="156"/>
       <c r="J14" s="38"/>
       <c r="K14" s="38"/>
       <c r="L14" s="38"/>
@@ -6077,32 +6074,32 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A3" s="151" t="s">
+      <c r="A3" s="152" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="152"/>
-      <c r="C3" s="152"/>
-      <c r="D3" s="152"/>
-      <c r="E3" s="152"/>
-      <c r="F3" s="152"/>
-      <c r="G3" s="152"/>
-      <c r="H3" s="152"/>
-      <c r="I3" s="152"/>
+      <c r="B3" s="153"/>
+      <c r="C3" s="153"/>
+      <c r="D3" s="153"/>
+      <c r="E3" s="153"/>
+      <c r="F3" s="153"/>
+      <c r="G3" s="153"/>
+      <c r="H3" s="153"/>
+      <c r="I3" s="153"/>
     </row>
     <row r="4" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
-      <c r="D4" s="153" t="s">
+      <c r="D4" s="154" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="154"/>
-      <c r="F4" s="155"/>
-      <c r="G4" s="153" t="s">
+      <c r="E4" s="155"/>
+      <c r="F4" s="156"/>
+      <c r="G4" s="154" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="154"/>
-      <c r="I4" s="155"/>
+      <c r="H4" s="155"/>
+      <c r="I4" s="156"/>
       <c r="K4" s="3" t="s">
         <v>4</v>
       </c>
@@ -6398,32 +6395,32 @@
       </c>
     </row>
     <row r="16" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A16" s="151" t="s">
+      <c r="A16" s="152" t="s">
         <v>38</v>
       </c>
-      <c r="B16" s="152"/>
-      <c r="C16" s="152"/>
-      <c r="D16" s="152"/>
-      <c r="E16" s="152"/>
-      <c r="F16" s="152"/>
-      <c r="G16" s="152"/>
-      <c r="H16" s="152"/>
-      <c r="I16" s="152"/>
+      <c r="B16" s="153"/>
+      <c r="C16" s="153"/>
+      <c r="D16" s="153"/>
+      <c r="E16" s="153"/>
+      <c r="F16" s="153"/>
+      <c r="G16" s="153"/>
+      <c r="H16" s="153"/>
+      <c r="I16" s="153"/>
     </row>
     <row r="17" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A17" s="9"/>
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
-      <c r="D17" s="158" t="s">
+      <c r="D17" s="159" t="s">
         <v>2</v>
       </c>
-      <c r="E17" s="154"/>
-      <c r="F17" s="155"/>
-      <c r="G17" s="159" t="s">
+      <c r="E17" s="155"/>
+      <c r="F17" s="156"/>
+      <c r="G17" s="160" t="s">
         <v>3</v>
       </c>
-      <c r="H17" s="154"/>
-      <c r="I17" s="155"/>
+      <c r="H17" s="155"/>
+      <c r="I17" s="156"/>
     </row>
     <row r="18" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A18" s="39" t="s">
@@ -6670,32 +6667,32 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="151" t="s">
+      <c r="A3" s="152" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="152"/>
-      <c r="C3" s="152"/>
-      <c r="D3" s="152"/>
-      <c r="E3" s="152"/>
-      <c r="F3" s="152"/>
-      <c r="G3" s="152"/>
-      <c r="H3" s="152"/>
-      <c r="I3" s="152"/>
+      <c r="B3" s="153"/>
+      <c r="C3" s="153"/>
+      <c r="D3" s="153"/>
+      <c r="E3" s="153"/>
+      <c r="F3" s="153"/>
+      <c r="G3" s="153"/>
+      <c r="H3" s="153"/>
+      <c r="I3" s="153"/>
     </row>
     <row r="4" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
-      <c r="D4" s="153" t="s">
+      <c r="D4" s="154" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="154"/>
-      <c r="F4" s="155"/>
-      <c r="G4" s="153" t="s">
+      <c r="E4" s="155"/>
+      <c r="F4" s="156"/>
+      <c r="G4" s="154" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="154"/>
-      <c r="I4" s="155"/>
+      <c r="H4" s="155"/>
+      <c r="I4" s="156"/>
       <c r="K4" s="3" t="s">
         <v>4</v>
       </c>
@@ -7039,32 +7036,32 @@
       <c r="I18" s="25"/>
     </row>
     <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="151" t="s">
+      <c r="A19" s="152" t="s">
         <v>38</v>
       </c>
-      <c r="B19" s="152"/>
-      <c r="C19" s="152"/>
-      <c r="D19" s="152"/>
-      <c r="E19" s="152"/>
-      <c r="F19" s="152"/>
-      <c r="G19" s="152"/>
-      <c r="H19" s="152"/>
-      <c r="I19" s="152"/>
+      <c r="B19" s="153"/>
+      <c r="C19" s="153"/>
+      <c r="D19" s="153"/>
+      <c r="E19" s="153"/>
+      <c r="F19" s="153"/>
+      <c r="G19" s="153"/>
+      <c r="H19" s="153"/>
+      <c r="I19" s="153"/>
     </row>
     <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
-      <c r="D20" s="153" t="s">
+      <c r="D20" s="154" t="s">
         <v>2</v>
       </c>
-      <c r="E20" s="154"/>
-      <c r="F20" s="156"/>
-      <c r="G20" s="153" t="s">
+      <c r="E20" s="155"/>
+      <c r="F20" s="157"/>
+      <c r="G20" s="154" t="s">
         <v>3</v>
       </c>
-      <c r="H20" s="154"/>
-      <c r="I20" s="155"/>
+      <c r="H20" s="155"/>
+      <c r="I20" s="156"/>
     </row>
     <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
@@ -7240,32 +7237,32 @@
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="151" t="s">
+      <c r="A1" s="152" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="152"/>
-      <c r="C1" s="152"/>
-      <c r="D1" s="152"/>
-      <c r="E1" s="152"/>
-      <c r="F1" s="152"/>
-      <c r="G1" s="152"/>
-      <c r="H1" s="152"/>
-      <c r="I1" s="152"/>
+      <c r="B1" s="153"/>
+      <c r="C1" s="153"/>
+      <c r="D1" s="153"/>
+      <c r="E1" s="153"/>
+      <c r="F1" s="153"/>
+      <c r="G1" s="153"/>
+      <c r="H1" s="153"/>
+      <c r="I1" s="153"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
-      <c r="D2" s="153" t="s">
+      <c r="D2" s="154" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="154"/>
-      <c r="F2" s="155"/>
-      <c r="G2" s="153" t="s">
+      <c r="E2" s="155"/>
+      <c r="F2" s="156"/>
+      <c r="G2" s="154" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="154"/>
-      <c r="I2" s="155"/>
+      <c r="H2" s="155"/>
+      <c r="I2" s="156"/>
     </row>
     <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
@@ -7449,32 +7446,32 @@
       <c r="I11" s="25"/>
     </row>
     <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="151" t="s">
+      <c r="A13" s="152" t="s">
         <v>38</v>
       </c>
-      <c r="B13" s="152"/>
-      <c r="C13" s="152"/>
-      <c r="D13" s="152"/>
-      <c r="E13" s="152"/>
-      <c r="F13" s="152"/>
-      <c r="G13" s="152"/>
-      <c r="H13" s="152"/>
-      <c r="I13" s="152"/>
+      <c r="B13" s="153"/>
+      <c r="C13" s="153"/>
+      <c r="D13" s="153"/>
+      <c r="E13" s="153"/>
+      <c r="F13" s="153"/>
+      <c r="G13" s="153"/>
+      <c r="H13" s="153"/>
+      <c r="I13" s="153"/>
     </row>
     <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
-      <c r="D14" s="153" t="s">
+      <c r="D14" s="154" t="s">
         <v>2</v>
       </c>
-      <c r="E14" s="154"/>
-      <c r="F14" s="156"/>
-      <c r="G14" s="153" t="s">
+      <c r="E14" s="155"/>
+      <c r="F14" s="157"/>
+      <c r="G14" s="154" t="s">
         <v>3</v>
       </c>
-      <c r="H14" s="154"/>
-      <c r="I14" s="155"/>
+      <c r="H14" s="155"/>
+      <c r="I14" s="156"/>
     </row>
     <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
@@ -7711,32 +7708,32 @@
       <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A3" s="151" t="s">
+      <c r="A3" s="152" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="152"/>
-      <c r="C3" s="152"/>
-      <c r="D3" s="152"/>
-      <c r="E3" s="152"/>
-      <c r="F3" s="152"/>
-      <c r="G3" s="152"/>
-      <c r="H3" s="152"/>
-      <c r="I3" s="152"/>
+      <c r="B3" s="153"/>
+      <c r="C3" s="153"/>
+      <c r="D3" s="153"/>
+      <c r="E3" s="153"/>
+      <c r="F3" s="153"/>
+      <c r="G3" s="153"/>
+      <c r="H3" s="153"/>
+      <c r="I3" s="153"/>
     </row>
     <row r="4" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
-      <c r="D4" s="153" t="s">
+      <c r="D4" s="154" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="154"/>
-      <c r="F4" s="155"/>
-      <c r="G4" s="153" t="s">
+      <c r="E4" s="155"/>
+      <c r="F4" s="156"/>
+      <c r="G4" s="154" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="154"/>
-      <c r="I4" s="155"/>
+      <c r="H4" s="155"/>
+      <c r="I4" s="156"/>
       <c r="K4" s="3" t="s">
         <v>4</v>
       </c>
@@ -8036,32 +8033,32 @@
       <c r="I13" s="25"/>
     </row>
     <row r="15" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A15" s="151" t="s">
+      <c r="A15" s="152" t="s">
         <v>38</v>
       </c>
-      <c r="B15" s="152"/>
-      <c r="C15" s="152"/>
-      <c r="D15" s="152"/>
-      <c r="E15" s="152"/>
-      <c r="F15" s="152"/>
-      <c r="G15" s="152"/>
-      <c r="H15" s="152"/>
-      <c r="I15" s="152"/>
+      <c r="B15" s="153"/>
+      <c r="C15" s="153"/>
+      <c r="D15" s="153"/>
+      <c r="E15" s="153"/>
+      <c r="F15" s="153"/>
+      <c r="G15" s="153"/>
+      <c r="H15" s="153"/>
+      <c r="I15" s="153"/>
     </row>
     <row r="16" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
-      <c r="D16" s="153" t="s">
+      <c r="D16" s="154" t="s">
         <v>2</v>
       </c>
-      <c r="E16" s="154"/>
-      <c r="F16" s="156"/>
-      <c r="G16" s="153" t="s">
+      <c r="E16" s="155"/>
+      <c r="F16" s="157"/>
+      <c r="G16" s="154" t="s">
         <v>3</v>
       </c>
-      <c r="H16" s="154"/>
-      <c r="I16" s="155"/>
+      <c r="H16" s="155"/>
+      <c r="I16" s="156"/>
     </row>
     <row r="17" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
@@ -9269,85 +9266,85 @@
   <sheetData>
     <row r="2" spans="1:33" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A2" s="71"/>
-      <c r="B2" s="160" t="s">
+      <c r="B2" s="161" t="s">
         <v>78</v>
       </c>
-      <c r="C2" s="161"/>
-      <c r="D2" s="161"/>
-      <c r="E2" s="161"/>
-      <c r="F2" s="161"/>
-      <c r="G2" s="161"/>
-      <c r="H2" s="161"/>
-      <c r="I2" s="161"/>
-      <c r="J2" s="161"/>
-      <c r="K2" s="161"/>
-      <c r="L2" s="161"/>
-      <c r="M2" s="161"/>
-      <c r="N2" s="161"/>
-      <c r="O2" s="161"/>
-      <c r="P2" s="161"/>
-      <c r="Q2" s="162"/>
-      <c r="R2" s="163" t="s">
+      <c r="C2" s="162"/>
+      <c r="D2" s="162"/>
+      <c r="E2" s="162"/>
+      <c r="F2" s="162"/>
+      <c r="G2" s="162"/>
+      <c r="H2" s="162"/>
+      <c r="I2" s="162"/>
+      <c r="J2" s="162"/>
+      <c r="K2" s="162"/>
+      <c r="L2" s="162"/>
+      <c r="M2" s="162"/>
+      <c r="N2" s="162"/>
+      <c r="O2" s="162"/>
+      <c r="P2" s="162"/>
+      <c r="Q2" s="163"/>
+      <c r="R2" s="164" t="s">
         <v>79</v>
       </c>
-      <c r="S2" s="161"/>
-      <c r="T2" s="161"/>
-      <c r="U2" s="161"/>
-      <c r="V2" s="161"/>
-      <c r="W2" s="161"/>
-      <c r="X2" s="161"/>
-      <c r="Y2" s="161"/>
-      <c r="Z2" s="161"/>
-      <c r="AA2" s="161"/>
-      <c r="AB2" s="161"/>
-      <c r="AC2" s="161"/>
-      <c r="AD2" s="161"/>
-      <c r="AE2" s="161"/>
-      <c r="AF2" s="161"/>
-      <c r="AG2" s="162"/>
+      <c r="S2" s="162"/>
+      <c r="T2" s="162"/>
+      <c r="U2" s="162"/>
+      <c r="V2" s="162"/>
+      <c r="W2" s="162"/>
+      <c r="X2" s="162"/>
+      <c r="Y2" s="162"/>
+      <c r="Z2" s="162"/>
+      <c r="AA2" s="162"/>
+      <c r="AB2" s="162"/>
+      <c r="AC2" s="162"/>
+      <c r="AD2" s="162"/>
+      <c r="AE2" s="162"/>
+      <c r="AF2" s="162"/>
+      <c r="AG2" s="163"/>
     </row>
     <row r="3" spans="1:33" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A3" s="72"/>
-      <c r="B3" s="160" t="s">
+      <c r="B3" s="161" t="s">
         <v>80</v>
       </c>
-      <c r="C3" s="161"/>
-      <c r="D3" s="161"/>
-      <c r="E3" s="161"/>
-      <c r="F3" s="161"/>
-      <c r="G3" s="161"/>
-      <c r="H3" s="161"/>
-      <c r="I3" s="162"/>
-      <c r="J3" s="164" t="s">
+      <c r="C3" s="162"/>
+      <c r="D3" s="162"/>
+      <c r="E3" s="162"/>
+      <c r="F3" s="162"/>
+      <c r="G3" s="162"/>
+      <c r="H3" s="162"/>
+      <c r="I3" s="163"/>
+      <c r="J3" s="165" t="s">
         <v>81</v>
       </c>
-      <c r="K3" s="161"/>
-      <c r="L3" s="161"/>
-      <c r="M3" s="161"/>
-      <c r="N3" s="161"/>
-      <c r="O3" s="161"/>
-      <c r="P3" s="161"/>
-      <c r="Q3" s="162"/>
-      <c r="R3" s="163" t="s">
+      <c r="K3" s="162"/>
+      <c r="L3" s="162"/>
+      <c r="M3" s="162"/>
+      <c r="N3" s="162"/>
+      <c r="O3" s="162"/>
+      <c r="P3" s="162"/>
+      <c r="Q3" s="163"/>
+      <c r="R3" s="164" t="s">
         <v>80</v>
       </c>
-      <c r="S3" s="161"/>
-      <c r="T3" s="161"/>
-      <c r="U3" s="161"/>
-      <c r="V3" s="161"/>
-      <c r="W3" s="161"/>
-      <c r="X3" s="161"/>
-      <c r="Y3" s="162"/>
-      <c r="Z3" s="163" t="s">
+      <c r="S3" s="162"/>
+      <c r="T3" s="162"/>
+      <c r="U3" s="162"/>
+      <c r="V3" s="162"/>
+      <c r="W3" s="162"/>
+      <c r="X3" s="162"/>
+      <c r="Y3" s="163"/>
+      <c r="Z3" s="164" t="s">
         <v>81</v>
       </c>
-      <c r="AA3" s="161"/>
-      <c r="AB3" s="161"/>
-      <c r="AC3" s="161"/>
-      <c r="AD3" s="161"/>
-      <c r="AE3" s="161"/>
-      <c r="AF3" s="161"/>
-      <c r="AG3" s="162"/>
+      <c r="AA3" s="162"/>
+      <c r="AB3" s="162"/>
+      <c r="AC3" s="162"/>
+      <c r="AD3" s="162"/>
+      <c r="AE3" s="162"/>
+      <c r="AF3" s="162"/>
+      <c r="AG3" s="163"/>
     </row>
     <row r="4" spans="1:33" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A4" s="73"/>
@@ -37350,8 +37347,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:K1083"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="C58" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -37428,10 +37425,10 @@
       <c r="B4" s="128" t="s">
         <v>82</v>
       </c>
-      <c r="C4" s="165">
+      <c r="C4" s="151">
         <v>42490</v>
       </c>
-      <c r="D4" s="165">
+      <c r="D4" s="151">
         <v>42490</v>
       </c>
       <c r="E4" s="128"/>
@@ -37698,9 +37695,7 @@
       <c r="B13" s="95" t="s">
         <v>41</v>
       </c>
-      <c r="C13" s="95" t="s">
-        <v>117</v>
-      </c>
+      <c r="C13" s="95"/>
       <c r="D13" s="143">
         <v>42968</v>
       </c>
@@ -37709,7 +37704,7 @@
         <v>36</v>
       </c>
       <c r="G13" s="95" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H13" s="95" t="s">
         <v>80</v>
@@ -37727,9 +37722,7 @@
       <c r="B14" s="95" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="95" t="s">
-        <v>117</v>
-      </c>
+      <c r="C14" s="95"/>
       <c r="D14" s="143">
         <v>42561</v>
       </c>
@@ -37738,7 +37731,7 @@
         <v>36</v>
       </c>
       <c r="G14" s="95" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H14" s="95" t="s">
         <v>80</v>
@@ -37756,9 +37749,7 @@
       <c r="B15" s="95" t="s">
         <v>41</v>
       </c>
-      <c r="C15" s="95" t="s">
-        <v>117</v>
-      </c>
+      <c r="C15" s="95"/>
       <c r="D15" s="143">
         <v>42605</v>
       </c>
@@ -37767,7 +37758,7 @@
         <v>36</v>
       </c>
       <c r="G15" s="95" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H15" s="95" t="s">
         <v>80</v>
@@ -37785,9 +37776,7 @@
       <c r="B16" s="95" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="95" t="s">
-        <v>117</v>
-      </c>
+      <c r="C16" s="95"/>
       <c r="D16" s="143">
         <v>42903</v>
       </c>
@@ -37796,7 +37785,7 @@
         <v>36</v>
       </c>
       <c r="G16" s="95" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H16" s="95" t="s">
         <v>80</v>
@@ -37812,7 +37801,7 @@
         <v>17</v>
       </c>
       <c r="B17" s="95" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C17" s="143">
         <v>42870</v>
@@ -37844,11 +37833,9 @@
         <v>17</v>
       </c>
       <c r="B18" s="95" t="s">
-        <v>119</v>
-      </c>
-      <c r="C18" s="95" t="s">
-        <v>117</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="C18" s="95"/>
       <c r="D18" s="143">
         <v>42490</v>
       </c>
@@ -37857,7 +37844,7 @@
         <v>36</v>
       </c>
       <c r="G18" s="95" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H18" s="95" t="s">
         <v>80</v>
@@ -37873,7 +37860,7 @@
         <v>24</v>
       </c>
       <c r="B19" s="95" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C19" s="143">
         <v>42870</v>
@@ -37905,7 +37892,7 @@
         <v>28</v>
       </c>
       <c r="B20" s="95" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C20" s="143">
         <v>42491</v>
@@ -37937,11 +37924,9 @@
         <v>28</v>
       </c>
       <c r="B21" s="95" t="s">
-        <v>119</v>
-      </c>
-      <c r="C21" s="95" t="s">
-        <v>117</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="C21" s="95"/>
       <c r="D21" s="143">
         <v>42605</v>
       </c>
@@ -37950,7 +37935,7 @@
         <v>36</v>
       </c>
       <c r="G21" s="95" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H21" s="95" t="s">
         <v>80</v>
@@ -37966,11 +37951,9 @@
         <v>34</v>
       </c>
       <c r="B22" s="95" t="s">
-        <v>119</v>
-      </c>
-      <c r="C22" s="95" t="s">
-        <v>117</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="C22" s="95"/>
       <c r="D22" s="143">
         <v>42903</v>
       </c>
@@ -37979,7 +37962,7 @@
         <v>36</v>
       </c>
       <c r="G22" s="95" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H22" s="95" t="s">
         <v>80</v>
@@ -37995,7 +37978,7 @@
         <v>17</v>
       </c>
       <c r="B23" s="95" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C23" s="143">
         <v>42451</v>
@@ -38027,7 +38010,7 @@
         <v>17</v>
       </c>
       <c r="B24" s="95" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C24" s="143">
         <v>42933</v>
@@ -38057,7 +38040,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="95" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C25" s="143">
         <v>42954</v>
@@ -38087,7 +38070,7 @@
         <v>28</v>
       </c>
       <c r="B26" s="95" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C26" s="143">
         <v>42497</v>
@@ -38117,7 +38100,7 @@
         <v>28</v>
       </c>
       <c r="B27" s="95" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C27" s="143">
         <v>42614</v>
@@ -38147,7 +38130,7 @@
         <v>34</v>
       </c>
       <c r="B28" s="95" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C28" s="143">
         <v>42827</v>
@@ -38177,7 +38160,7 @@
         <v>17</v>
       </c>
       <c r="B29" s="95" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C29" s="143">
         <v>42489</v>
@@ -38201,7 +38184,7 @@
         <v>1</v>
       </c>
       <c r="K29" s="137" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -38209,7 +38192,7 @@
         <v>17</v>
       </c>
       <c r="B30" s="95" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C30" s="143">
         <v>42967</v>
@@ -38233,7 +38216,7 @@
         <v>1</v>
       </c>
       <c r="K30" s="137" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -38241,11 +38224,9 @@
         <v>24</v>
       </c>
       <c r="B31" s="95" t="s">
-        <v>121</v>
-      </c>
-      <c r="C31" s="95" t="s">
-        <v>117</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="C31" s="95"/>
       <c r="D31" s="143">
         <v>42968</v>
       </c>
@@ -38254,7 +38235,7 @@
         <v>36</v>
       </c>
       <c r="G31" s="95" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H31" s="95" t="s">
         <v>80</v>
@@ -38270,7 +38251,7 @@
         <v>28</v>
       </c>
       <c r="B32" s="95" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C32" s="143">
         <v>42560</v>
@@ -38294,7 +38275,7 @@
         <v>1</v>
       </c>
       <c r="K32" s="137" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -38302,7 +38283,7 @@
         <v>28</v>
       </c>
       <c r="B33" s="95" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C33" s="143">
         <v>42603</v>
@@ -38332,7 +38313,7 @@
         <v>34</v>
       </c>
       <c r="B34" s="95" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C34" s="143">
         <v>42902</v>
@@ -38356,7 +38337,7 @@
         <v>1</v>
       </c>
       <c r="K34" s="137" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -38366,9 +38347,7 @@
       <c r="B35" s="95" t="s">
         <v>83</v>
       </c>
-      <c r="C35" s="95" t="s">
-        <v>117</v>
-      </c>
+      <c r="C35" s="95"/>
       <c r="D35" s="143">
         <v>42490</v>
       </c>
@@ -38377,7 +38356,7 @@
         <v>36</v>
       </c>
       <c r="G35" s="95" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H35" s="95" t="s">
         <v>80</v>
@@ -38395,9 +38374,7 @@
       <c r="B36" s="95" t="s">
         <v>83</v>
       </c>
-      <c r="C36" s="95" t="s">
-        <v>117</v>
-      </c>
+      <c r="C36" s="95"/>
       <c r="D36" s="143">
         <v>42967</v>
       </c>
@@ -38406,7 +38383,7 @@
         <v>36</v>
       </c>
       <c r="G36" s="95" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H36" s="95" t="s">
         <v>80</v>
@@ -38454,9 +38431,7 @@
       <c r="B38" s="95" t="s">
         <v>83</v>
       </c>
-      <c r="C38" s="95" t="s">
-        <v>117</v>
-      </c>
+      <c r="C38" s="95"/>
       <c r="D38" s="143">
         <v>42561</v>
       </c>
@@ -38465,7 +38440,7 @@
         <v>36</v>
       </c>
       <c r="G38" s="95" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H38" s="95" t="s">
         <v>80</v>
@@ -38483,9 +38458,7 @@
       <c r="B39" s="95" t="s">
         <v>83</v>
       </c>
-      <c r="C39" s="95" t="s">
-        <v>117</v>
-      </c>
+      <c r="C39" s="95"/>
       <c r="D39" s="143">
         <v>42605</v>
       </c>
@@ -38494,7 +38467,7 @@
         <v>36</v>
       </c>
       <c r="G39" s="95" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H39" s="95" t="s">
         <v>80</v>
@@ -38540,7 +38513,7 @@
         <v>17</v>
       </c>
       <c r="B41" s="95" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C41" s="143">
         <v>42904</v>
@@ -38572,11 +38545,9 @@
         <v>17</v>
       </c>
       <c r="B42" s="95" t="s">
-        <v>123</v>
-      </c>
-      <c r="C42" s="95" t="s">
-        <v>117</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="C42" s="95"/>
       <c r="D42" s="143">
         <v>42490</v>
       </c>
@@ -38585,7 +38556,7 @@
         <v>36</v>
       </c>
       <c r="G42" s="95" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H42" s="95" t="s">
         <v>80</v>
@@ -38601,7 +38572,7 @@
         <v>24</v>
       </c>
       <c r="B43" s="95" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C43" s="143">
         <v>42904</v>
@@ -38633,11 +38604,9 @@
         <v>28</v>
       </c>
       <c r="B44" s="95" t="s">
-        <v>123</v>
-      </c>
-      <c r="C44" s="95" t="s">
-        <v>117</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="C44" s="95"/>
       <c r="D44" s="143">
         <v>42561</v>
       </c>
@@ -38646,7 +38615,7 @@
         <v>36</v>
       </c>
       <c r="G44" s="95" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H44" s="95" t="s">
         <v>80</v>
@@ -38662,7 +38631,7 @@
         <v>28</v>
       </c>
       <c r="B45" s="95" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C45" s="143">
         <v>42575</v>
@@ -38694,11 +38663,9 @@
         <v>34</v>
       </c>
       <c r="B46" s="95" t="s">
-        <v>123</v>
-      </c>
-      <c r="C46" s="95" t="s">
-        <v>117</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="C46" s="95"/>
       <c r="D46" s="143">
         <v>42903</v>
       </c>
@@ -38707,7 +38674,7 @@
         <v>36</v>
       </c>
       <c r="G46" s="95" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H46" s="95" t="s">
         <v>80</v>
@@ -38846,7 +38813,7 @@
         <v>17</v>
       </c>
       <c r="B52" s="95" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C52" s="143">
         <v>43072</v>
@@ -38869,7 +38836,7 @@
         <v>24</v>
       </c>
       <c r="B53" s="95" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C53" s="143">
         <v>43042</v>
@@ -38892,14 +38859,14 @@
         <v>17</v>
       </c>
       <c r="B54" s="95" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C54" s="143">
         <v>42972</v>
       </c>
       <c r="D54" s="95"/>
       <c r="E54" s="95" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F54" s="95"/>
       <c r="G54" s="95"/>
@@ -38917,14 +38884,14 @@
         <v>17</v>
       </c>
       <c r="B55" s="95" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C55" s="143">
         <v>43089</v>
       </c>
       <c r="D55" s="95"/>
       <c r="E55" s="95" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F55" s="95"/>
       <c r="G55" s="95"/>
@@ -38942,14 +38909,14 @@
         <v>34</v>
       </c>
       <c r="B56" s="95" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C56" s="143">
         <v>42971</v>
       </c>
       <c r="D56" s="95"/>
       <c r="E56" s="95" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F56" s="95"/>
       <c r="G56" s="95"/>
@@ -38967,14 +38934,14 @@
         <v>34</v>
       </c>
       <c r="B57" s="95" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C57" s="143">
         <v>43092</v>
       </c>
       <c r="D57" s="95"/>
       <c r="E57" s="95" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F57" s="95"/>
       <c r="G57" s="95"/>
@@ -38989,10 +38956,10 @@
     </row>
     <row r="58" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="135" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B58" s="95" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C58" s="142">
         <v>42980</v>
@@ -39012,10 +38979,10 @@
     </row>
     <row r="59" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="135" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B59" s="95" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C59" s="142">
         <v>42990</v>
@@ -39035,10 +39002,10 @@
     </row>
     <row r="60" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="135" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B60" s="95" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C60" s="142">
         <v>43010</v>
@@ -39058,10 +39025,10 @@
     </row>
     <row r="61" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="135" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B61" s="95" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C61" s="142">
         <v>43023</v>
@@ -39084,7 +39051,7 @@
         <v>28</v>
       </c>
       <c r="B62" s="95" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C62" s="142">
         <v>42904</v>
@@ -39107,7 +39074,7 @@
         <v>34</v>
       </c>
       <c r="B63" s="95" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C63" s="142">
         <v>42967</v>
@@ -39130,7 +39097,7 @@
         <v>35</v>
       </c>
       <c r="B64" s="95" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C64" s="142">
         <v>43086</v>
@@ -39320,9 +39287,7 @@
       <c r="B71" s="95" t="s">
         <v>41</v>
       </c>
-      <c r="C71" s="143" t="s">
-        <v>117</v>
-      </c>
+      <c r="C71" s="143"/>
       <c r="D71" s="143">
         <v>42561</v>
       </c>
@@ -39331,7 +39296,7 @@
         <v>36</v>
       </c>
       <c r="G71" s="95" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H71" s="95" t="s">
         <v>80</v>
@@ -39351,9 +39316,7 @@
       <c r="B72" s="95" t="s">
         <v>41</v>
       </c>
-      <c r="C72" s="143" t="s">
-        <v>117</v>
-      </c>
+      <c r="C72" s="143"/>
       <c r="D72" s="143">
         <v>42605</v>
       </c>
@@ -39362,7 +39325,7 @@
         <v>36</v>
       </c>
       <c r="G72" s="95" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H72" s="95" t="s">
         <v>80</v>
@@ -39380,11 +39343,9 @@
         <v>17</v>
       </c>
       <c r="B73" s="95" t="s">
-        <v>119</v>
-      </c>
-      <c r="C73" s="143" t="s">
-        <v>117</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="C73" s="143"/>
       <c r="D73" s="143">
         <v>42490</v>
       </c>
@@ -39393,7 +39354,7 @@
         <v>36</v>
       </c>
       <c r="G73" s="95" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H73" s="95" t="s">
         <v>80</v>
@@ -39409,7 +39370,7 @@
         <v>28</v>
       </c>
       <c r="B74" s="95" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C74" s="143">
         <v>42491</v>
@@ -39441,11 +39402,9 @@
         <v>28</v>
       </c>
       <c r="B75" s="95" t="s">
-        <v>119</v>
-      </c>
-      <c r="C75" s="143" t="s">
-        <v>117</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="C75" s="143"/>
       <c r="D75" s="143">
         <v>42605</v>
       </c>
@@ -39454,7 +39413,7 @@
         <v>36</v>
       </c>
       <c r="G75" s="95" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H75" s="95" t="s">
         <v>80</v>
@@ -39470,7 +39429,7 @@
         <v>17</v>
       </c>
       <c r="B76" s="95" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C76" s="143">
         <v>42451</v>
@@ -39500,7 +39459,7 @@
         <v>17</v>
       </c>
       <c r="B77" s="95" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C77" s="143">
         <v>42582</v>
@@ -39530,7 +39489,7 @@
         <v>17</v>
       </c>
       <c r="B78" s="95" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C78" s="143">
         <v>42655</v>
@@ -39560,7 +39519,7 @@
         <v>17</v>
       </c>
       <c r="B79" s="95" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C79" s="143">
         <v>42755</v>
@@ -39590,7 +39549,7 @@
         <v>28</v>
       </c>
       <c r="B80" s="95" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C80" s="143">
         <v>42556</v>
@@ -39620,7 +39579,7 @@
         <v>28</v>
       </c>
       <c r="B81" s="95" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C81" s="143">
         <v>42614</v>
@@ -39650,11 +39609,9 @@
         <v>17</v>
       </c>
       <c r="B82" s="95" t="s">
-        <v>123</v>
-      </c>
-      <c r="C82" s="143" t="s">
-        <v>117</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="C82" s="143"/>
       <c r="D82" s="143">
         <v>42490</v>
       </c>
@@ -39663,7 +39620,7 @@
         <v>36</v>
       </c>
       <c r="G82" s="95" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H82" s="95" t="s">
         <v>80</v>
@@ -39679,11 +39636,9 @@
         <v>28</v>
       </c>
       <c r="B83" s="95" t="s">
-        <v>123</v>
-      </c>
-      <c r="C83" s="143" t="s">
-        <v>117</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="C83" s="143"/>
       <c r="D83" s="143">
         <v>42561</v>
       </c>
@@ -39692,7 +39647,7 @@
         <v>36</v>
       </c>
       <c r="G83" s="95" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H83" s="95" t="s">
         <v>80</v>
@@ -39708,7 +39663,7 @@
         <v>28</v>
       </c>
       <c r="B84" s="95" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C84" s="143">
         <v>42575</v>
@@ -39742,9 +39697,7 @@
       <c r="B85" s="95" t="s">
         <v>83</v>
       </c>
-      <c r="C85" s="143" t="s">
-        <v>117</v>
-      </c>
+      <c r="C85" s="143"/>
       <c r="D85" s="143">
         <v>42490</v>
       </c>
@@ -39753,7 +39706,7 @@
         <v>36</v>
       </c>
       <c r="G85" s="95" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H85" s="95" t="s">
         <v>80</v>
@@ -39771,9 +39724,7 @@
       <c r="B86" s="95" t="s">
         <v>83</v>
       </c>
-      <c r="C86" s="143" t="s">
-        <v>117</v>
-      </c>
+      <c r="C86" s="143"/>
       <c r="D86" s="143">
         <v>42561</v>
       </c>
@@ -39782,7 +39733,7 @@
         <v>36</v>
       </c>
       <c r="G86" s="95" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H86" s="95" t="s">
         <v>80</v>
@@ -39800,9 +39751,7 @@
       <c r="B87" s="95" t="s">
         <v>83</v>
       </c>
-      <c r="C87" s="143" t="s">
-        <v>117</v>
-      </c>
+      <c r="C87" s="143"/>
       <c r="D87" s="143">
         <v>42605</v>
       </c>
@@ -39811,7 +39760,7 @@
         <v>36</v>
       </c>
       <c r="G87" s="95" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H87" s="95" t="s">
         <v>80</v>
@@ -39988,9 +39937,7 @@
       <c r="B94" s="95" t="s">
         <v>41</v>
       </c>
-      <c r="C94" s="143" t="s">
-        <v>117</v>
-      </c>
+      <c r="C94" s="143"/>
       <c r="D94" s="142">
         <v>42968</v>
       </c>
@@ -39999,7 +39946,7 @@
         <v>36</v>
       </c>
       <c r="G94" s="95" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H94" s="95" t="s">
         <v>81</v>
@@ -40017,9 +39964,7 @@
       <c r="B95" s="95" t="s">
         <v>41</v>
       </c>
-      <c r="C95" s="143" t="s">
-        <v>117</v>
-      </c>
+      <c r="C95" s="143"/>
       <c r="D95" s="142">
         <v>42903</v>
       </c>
@@ -40028,7 +39973,7 @@
         <v>36</v>
       </c>
       <c r="G95" s="95" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H95" s="95" t="s">
         <v>81</v>
@@ -40044,7 +39989,7 @@
         <v>17</v>
       </c>
       <c r="B96" s="95" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C96" s="143">
         <v>42870</v>
@@ -40076,7 +40021,7 @@
         <v>24</v>
       </c>
       <c r="B97" s="95" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C97" s="143">
         <v>42870</v>
@@ -40108,11 +40053,9 @@
         <v>34</v>
       </c>
       <c r="B98" s="95" t="s">
-        <v>119</v>
-      </c>
-      <c r="C98" s="143" t="s">
-        <v>117</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="C98" s="143"/>
       <c r="D98" s="142">
         <v>42903</v>
       </c>
@@ -40121,7 +40064,7 @@
         <v>36</v>
       </c>
       <c r="G98" s="95" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H98" s="95" t="s">
         <v>81</v>
@@ -40137,7 +40080,7 @@
         <v>17</v>
       </c>
       <c r="B99" s="95" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C99" s="143">
         <v>42933</v>
@@ -40167,7 +40110,7 @@
         <v>17</v>
       </c>
       <c r="B100" s="95" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C100" s="142">
         <v>42972</v>
@@ -40197,7 +40140,7 @@
         <v>34</v>
       </c>
       <c r="B101" s="95" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C101" s="142">
         <v>42971</v>
@@ -40229,9 +40172,7 @@
       <c r="B102" s="95" t="s">
         <v>83</v>
       </c>
-      <c r="C102" s="142" t="s">
-        <v>117</v>
-      </c>
+      <c r="C102" s="142"/>
       <c r="D102" s="142">
         <v>42967</v>
       </c>
@@ -40240,7 +40181,7 @@
         <v>36</v>
       </c>
       <c r="G102" s="95" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H102" s="95" t="s">
         <v>81</v>
@@ -40314,7 +40255,7 @@
         <v>17</v>
       </c>
       <c r="B105" s="95" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C105" s="143">
         <v>42904</v>
@@ -40346,7 +40287,7 @@
         <v>24</v>
       </c>
       <c r="B106" s="95" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C106" s="143">
         <v>42904</v>
@@ -40378,11 +40319,9 @@
         <v>34</v>
       </c>
       <c r="B107" s="147" t="s">
-        <v>123</v>
-      </c>
-      <c r="C107" s="148" t="s">
-        <v>117</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="C107" s="148"/>
       <c r="D107" s="148">
         <v>42903</v>
       </c>
@@ -40391,7 +40330,7 @@
         <v>36</v>
       </c>
       <c r="G107" s="147" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H107" s="147" t="s">
         <v>81</v>

--- a/results_template.xlsx
+++ b/results_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\note_\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{674556D1-7FAA-4A79-AE6C-8E78C0AA5F81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A302B044-3614-40CB-BE1B-B3FE0D07D28B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1212" yWindow="1332" windowWidth="21168" windowHeight="11028" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1188" yWindow="912" windowWidth="21168" windowHeight="11028" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="failures_template" sheetId="1" r:id="rId1"/>
@@ -1602,7 +1602,6 @@
     <xf numFmtId="14" fontId="0" fillId="5" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="6" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1633,6 +1632,7 @@
     <xf numFmtId="0" fontId="8" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="6" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1895,32 +1895,32 @@
       <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A3" s="152" t="s">
+      <c r="A3" s="151" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="153"/>
-      <c r="C3" s="153"/>
-      <c r="D3" s="153"/>
-      <c r="E3" s="153"/>
-      <c r="F3" s="153"/>
-      <c r="G3" s="153"/>
-      <c r="H3" s="153"/>
-      <c r="I3" s="153"/>
+      <c r="B3" s="152"/>
+      <c r="C3" s="152"/>
+      <c r="D3" s="152"/>
+      <c r="E3" s="152"/>
+      <c r="F3" s="152"/>
+      <c r="G3" s="152"/>
+      <c r="H3" s="152"/>
+      <c r="I3" s="152"/>
     </row>
     <row r="4" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
-      <c r="D4" s="154" t="s">
+      <c r="D4" s="153" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="155"/>
-      <c r="F4" s="156"/>
-      <c r="G4" s="154" t="s">
+      <c r="E4" s="154"/>
+      <c r="F4" s="155"/>
+      <c r="G4" s="153" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="155"/>
-      <c r="I4" s="156"/>
+      <c r="H4" s="154"/>
+      <c r="I4" s="155"/>
       <c r="K4" s="3" t="s">
         <v>4</v>
       </c>
@@ -2172,32 +2172,32 @@
       <c r="I13" s="25"/>
     </row>
     <row r="15" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A15" s="152" t="s">
+      <c r="A15" s="151" t="s">
         <v>38</v>
       </c>
-      <c r="B15" s="153"/>
-      <c r="C15" s="153"/>
-      <c r="D15" s="153"/>
-      <c r="E15" s="153"/>
-      <c r="F15" s="153"/>
-      <c r="G15" s="153"/>
-      <c r="H15" s="153"/>
-      <c r="I15" s="153"/>
+      <c r="B15" s="152"/>
+      <c r="C15" s="152"/>
+      <c r="D15" s="152"/>
+      <c r="E15" s="152"/>
+      <c r="F15" s="152"/>
+      <c r="G15" s="152"/>
+      <c r="H15" s="152"/>
+      <c r="I15" s="152"/>
     </row>
     <row r="16" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
-      <c r="D16" s="154" t="s">
+      <c r="D16" s="153" t="s">
         <v>2</v>
       </c>
-      <c r="E16" s="155"/>
-      <c r="F16" s="157"/>
-      <c r="G16" s="154" t="s">
+      <c r="E16" s="154"/>
+      <c r="F16" s="156"/>
+      <c r="G16" s="153" t="s">
         <v>3</v>
       </c>
-      <c r="H16" s="155"/>
-      <c r="I16" s="156"/>
+      <c r="H16" s="154"/>
+      <c r="I16" s="155"/>
     </row>
     <row r="17" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
@@ -3384,32 +3384,32 @@
       <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A3" s="152" t="s">
+      <c r="A3" s="151" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="153"/>
-      <c r="C3" s="153"/>
-      <c r="D3" s="153"/>
-      <c r="E3" s="153"/>
-      <c r="F3" s="153"/>
-      <c r="G3" s="153"/>
-      <c r="H3" s="153"/>
-      <c r="I3" s="153"/>
+      <c r="B3" s="152"/>
+      <c r="C3" s="152"/>
+      <c r="D3" s="152"/>
+      <c r="E3" s="152"/>
+      <c r="F3" s="152"/>
+      <c r="G3" s="152"/>
+      <c r="H3" s="152"/>
+      <c r="I3" s="152"/>
     </row>
     <row r="4" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
-      <c r="D4" s="154" t="s">
+      <c r="D4" s="153" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="155"/>
-      <c r="F4" s="156"/>
-      <c r="G4" s="154" t="s">
+      <c r="E4" s="154"/>
+      <c r="F4" s="155"/>
+      <c r="G4" s="153" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="155"/>
-      <c r="I4" s="156"/>
+      <c r="H4" s="154"/>
+      <c r="I4" s="155"/>
     </row>
     <row r="5" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
@@ -3714,17 +3714,17 @@
       <c r="I23" s="25"/>
     </row>
     <row r="25" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A25" s="152" t="s">
+      <c r="A25" s="151" t="s">
         <v>38</v>
       </c>
-      <c r="B25" s="153"/>
-      <c r="C25" s="153"/>
-      <c r="D25" s="153"/>
-      <c r="E25" s="153"/>
-      <c r="F25" s="153"/>
-      <c r="G25" s="153"/>
-      <c r="H25" s="153"/>
-      <c r="I25" s="153"/>
+      <c r="B25" s="152"/>
+      <c r="C25" s="152"/>
+      <c r="D25" s="152"/>
+      <c r="E25" s="152"/>
+      <c r="F25" s="152"/>
+      <c r="G25" s="152"/>
+      <c r="H25" s="152"/>
+      <c r="I25" s="152"/>
       <c r="L25" s="33">
         <v>42903</v>
       </c>
@@ -3733,16 +3733,16 @@
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
-      <c r="D26" s="154" t="s">
+      <c r="D26" s="153" t="s">
         <v>2</v>
       </c>
-      <c r="E26" s="155"/>
-      <c r="F26" s="157"/>
-      <c r="G26" s="154" t="s">
+      <c r="E26" s="154"/>
+      <c r="F26" s="156"/>
+      <c r="G26" s="153" t="s">
         <v>3</v>
       </c>
-      <c r="H26" s="155"/>
-      <c r="I26" s="156"/>
+      <c r="H26" s="154"/>
+      <c r="I26" s="155"/>
       <c r="L26" s="33">
         <v>42979</v>
       </c>
@@ -5372,17 +5372,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="158" t="s">
+      <c r="A1" s="157" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="153"/>
-      <c r="C1" s="153"/>
-      <c r="D1" s="153"/>
-      <c r="E1" s="153"/>
-      <c r="F1" s="153"/>
-      <c r="G1" s="153"/>
-      <c r="H1" s="153"/>
-      <c r="I1" s="153"/>
+      <c r="B1" s="152"/>
+      <c r="C1" s="152"/>
+      <c r="D1" s="152"/>
+      <c r="E1" s="152"/>
+      <c r="F1" s="152"/>
+      <c r="G1" s="152"/>
+      <c r="H1" s="152"/>
+      <c r="I1" s="152"/>
       <c r="J1" s="38"/>
       <c r="K1" s="38"/>
       <c r="L1" s="38"/>
@@ -5393,16 +5393,16 @@
       <c r="A2" s="9"/>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
-      <c r="D2" s="159" t="s">
+      <c r="D2" s="158" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="155"/>
-      <c r="F2" s="156"/>
-      <c r="G2" s="160" t="s">
+      <c r="E2" s="154"/>
+      <c r="F2" s="155"/>
+      <c r="G2" s="159" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="155"/>
-      <c r="I2" s="156"/>
+      <c r="H2" s="154"/>
+      <c r="I2" s="155"/>
       <c r="J2" s="38"/>
       <c r="K2" s="38" t="s">
         <v>4</v>
@@ -5770,17 +5770,17 @@
       <c r="N12" s="38"/>
     </row>
     <row r="13" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="158" t="s">
+      <c r="A13" s="157" t="s">
         <v>66</v>
       </c>
-      <c r="B13" s="153"/>
-      <c r="C13" s="153"/>
-      <c r="D13" s="153"/>
-      <c r="E13" s="153"/>
-      <c r="F13" s="153"/>
-      <c r="G13" s="153"/>
-      <c r="H13" s="153"/>
-      <c r="I13" s="153"/>
+      <c r="B13" s="152"/>
+      <c r="C13" s="152"/>
+      <c r="D13" s="152"/>
+      <c r="E13" s="152"/>
+      <c r="F13" s="152"/>
+      <c r="G13" s="152"/>
+      <c r="H13" s="152"/>
+      <c r="I13" s="152"/>
       <c r="J13" s="38"/>
       <c r="K13" s="38"/>
       <c r="L13" s="38"/>
@@ -5791,16 +5791,16 @@
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
-      <c r="D14" s="159" t="s">
+      <c r="D14" s="158" t="s">
         <v>2</v>
       </c>
-      <c r="E14" s="155"/>
-      <c r="F14" s="157"/>
-      <c r="G14" s="159" t="s">
+      <c r="E14" s="154"/>
+      <c r="F14" s="156"/>
+      <c r="G14" s="158" t="s">
         <v>3</v>
       </c>
-      <c r="H14" s="155"/>
-      <c r="I14" s="156"/>
+      <c r="H14" s="154"/>
+      <c r="I14" s="155"/>
       <c r="J14" s="38"/>
       <c r="K14" s="38"/>
       <c r="L14" s="38"/>
@@ -6074,32 +6074,32 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A3" s="152" t="s">
+      <c r="A3" s="151" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="153"/>
-      <c r="C3" s="153"/>
-      <c r="D3" s="153"/>
-      <c r="E3" s="153"/>
-      <c r="F3" s="153"/>
-      <c r="G3" s="153"/>
-      <c r="H3" s="153"/>
-      <c r="I3" s="153"/>
+      <c r="B3" s="152"/>
+      <c r="C3" s="152"/>
+      <c r="D3" s="152"/>
+      <c r="E3" s="152"/>
+      <c r="F3" s="152"/>
+      <c r="G3" s="152"/>
+      <c r="H3" s="152"/>
+      <c r="I3" s="152"/>
     </row>
     <row r="4" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
-      <c r="D4" s="154" t="s">
+      <c r="D4" s="153" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="155"/>
-      <c r="F4" s="156"/>
-      <c r="G4" s="154" t="s">
+      <c r="E4" s="154"/>
+      <c r="F4" s="155"/>
+      <c r="G4" s="153" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="155"/>
-      <c r="I4" s="156"/>
+      <c r="H4" s="154"/>
+      <c r="I4" s="155"/>
       <c r="K4" s="3" t="s">
         <v>4</v>
       </c>
@@ -6395,32 +6395,32 @@
       </c>
     </row>
     <row r="16" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A16" s="152" t="s">
+      <c r="A16" s="151" t="s">
         <v>38</v>
       </c>
-      <c r="B16" s="153"/>
-      <c r="C16" s="153"/>
-      <c r="D16" s="153"/>
-      <c r="E16" s="153"/>
-      <c r="F16" s="153"/>
-      <c r="G16" s="153"/>
-      <c r="H16" s="153"/>
-      <c r="I16" s="153"/>
+      <c r="B16" s="152"/>
+      <c r="C16" s="152"/>
+      <c r="D16" s="152"/>
+      <c r="E16" s="152"/>
+      <c r="F16" s="152"/>
+      <c r="G16" s="152"/>
+      <c r="H16" s="152"/>
+      <c r="I16" s="152"/>
     </row>
     <row r="17" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A17" s="9"/>
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
-      <c r="D17" s="159" t="s">
+      <c r="D17" s="158" t="s">
         <v>2</v>
       </c>
-      <c r="E17" s="155"/>
-      <c r="F17" s="156"/>
-      <c r="G17" s="160" t="s">
+      <c r="E17" s="154"/>
+      <c r="F17" s="155"/>
+      <c r="G17" s="159" t="s">
         <v>3</v>
       </c>
-      <c r="H17" s="155"/>
-      <c r="I17" s="156"/>
+      <c r="H17" s="154"/>
+      <c r="I17" s="155"/>
     </row>
     <row r="18" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A18" s="39" t="s">
@@ -6667,32 +6667,32 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="152" t="s">
+      <c r="A3" s="151" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="153"/>
-      <c r="C3" s="153"/>
-      <c r="D3" s="153"/>
-      <c r="E3" s="153"/>
-      <c r="F3" s="153"/>
-      <c r="G3" s="153"/>
-      <c r="H3" s="153"/>
-      <c r="I3" s="153"/>
+      <c r="B3" s="152"/>
+      <c r="C3" s="152"/>
+      <c r="D3" s="152"/>
+      <c r="E3" s="152"/>
+      <c r="F3" s="152"/>
+      <c r="G3" s="152"/>
+      <c r="H3" s="152"/>
+      <c r="I3" s="152"/>
     </row>
     <row r="4" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
-      <c r="D4" s="154" t="s">
+      <c r="D4" s="153" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="155"/>
-      <c r="F4" s="156"/>
-      <c r="G4" s="154" t="s">
+      <c r="E4" s="154"/>
+      <c r="F4" s="155"/>
+      <c r="G4" s="153" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="155"/>
-      <c r="I4" s="156"/>
+      <c r="H4" s="154"/>
+      <c r="I4" s="155"/>
       <c r="K4" s="3" t="s">
         <v>4</v>
       </c>
@@ -7036,32 +7036,32 @@
       <c r="I18" s="25"/>
     </row>
     <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="152" t="s">
+      <c r="A19" s="151" t="s">
         <v>38</v>
       </c>
-      <c r="B19" s="153"/>
-      <c r="C19" s="153"/>
-      <c r="D19" s="153"/>
-      <c r="E19" s="153"/>
-      <c r="F19" s="153"/>
-      <c r="G19" s="153"/>
-      <c r="H19" s="153"/>
-      <c r="I19" s="153"/>
+      <c r="B19" s="152"/>
+      <c r="C19" s="152"/>
+      <c r="D19" s="152"/>
+      <c r="E19" s="152"/>
+      <c r="F19" s="152"/>
+      <c r="G19" s="152"/>
+      <c r="H19" s="152"/>
+      <c r="I19" s="152"/>
     </row>
     <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
-      <c r="D20" s="154" t="s">
+      <c r="D20" s="153" t="s">
         <v>2</v>
       </c>
-      <c r="E20" s="155"/>
-      <c r="F20" s="157"/>
-      <c r="G20" s="154" t="s">
+      <c r="E20" s="154"/>
+      <c r="F20" s="156"/>
+      <c r="G20" s="153" t="s">
         <v>3</v>
       </c>
-      <c r="H20" s="155"/>
-      <c r="I20" s="156"/>
+      <c r="H20" s="154"/>
+      <c r="I20" s="155"/>
     </row>
     <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
@@ -7237,32 +7237,32 @@
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="152" t="s">
+      <c r="A1" s="151" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="153"/>
-      <c r="C1" s="153"/>
-      <c r="D1" s="153"/>
-      <c r="E1" s="153"/>
-      <c r="F1" s="153"/>
-      <c r="G1" s="153"/>
-      <c r="H1" s="153"/>
-      <c r="I1" s="153"/>
+      <c r="B1" s="152"/>
+      <c r="C1" s="152"/>
+      <c r="D1" s="152"/>
+      <c r="E1" s="152"/>
+      <c r="F1" s="152"/>
+      <c r="G1" s="152"/>
+      <c r="H1" s="152"/>
+      <c r="I1" s="152"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
-      <c r="D2" s="154" t="s">
+      <c r="D2" s="153" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="155"/>
-      <c r="F2" s="156"/>
-      <c r="G2" s="154" t="s">
+      <c r="E2" s="154"/>
+      <c r="F2" s="155"/>
+      <c r="G2" s="153" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="155"/>
-      <c r="I2" s="156"/>
+      <c r="H2" s="154"/>
+      <c r="I2" s="155"/>
     </row>
     <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
@@ -7446,32 +7446,32 @@
       <c r="I11" s="25"/>
     </row>
     <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="152" t="s">
+      <c r="A13" s="151" t="s">
         <v>38</v>
       </c>
-      <c r="B13" s="153"/>
-      <c r="C13" s="153"/>
-      <c r="D13" s="153"/>
-      <c r="E13" s="153"/>
-      <c r="F13" s="153"/>
-      <c r="G13" s="153"/>
-      <c r="H13" s="153"/>
-      <c r="I13" s="153"/>
+      <c r="B13" s="152"/>
+      <c r="C13" s="152"/>
+      <c r="D13" s="152"/>
+      <c r="E13" s="152"/>
+      <c r="F13" s="152"/>
+      <c r="G13" s="152"/>
+      <c r="H13" s="152"/>
+      <c r="I13" s="152"/>
     </row>
     <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
-      <c r="D14" s="154" t="s">
+      <c r="D14" s="153" t="s">
         <v>2</v>
       </c>
-      <c r="E14" s="155"/>
-      <c r="F14" s="157"/>
-      <c r="G14" s="154" t="s">
+      <c r="E14" s="154"/>
+      <c r="F14" s="156"/>
+      <c r="G14" s="153" t="s">
         <v>3</v>
       </c>
-      <c r="H14" s="155"/>
-      <c r="I14" s="156"/>
+      <c r="H14" s="154"/>
+      <c r="I14" s="155"/>
     </row>
     <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
@@ -7708,32 +7708,32 @@
       <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A3" s="152" t="s">
+      <c r="A3" s="151" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="153"/>
-      <c r="C3" s="153"/>
-      <c r="D3" s="153"/>
-      <c r="E3" s="153"/>
-      <c r="F3" s="153"/>
-      <c r="G3" s="153"/>
-      <c r="H3" s="153"/>
-      <c r="I3" s="153"/>
+      <c r="B3" s="152"/>
+      <c r="C3" s="152"/>
+      <c r="D3" s="152"/>
+      <c r="E3" s="152"/>
+      <c r="F3" s="152"/>
+      <c r="G3" s="152"/>
+      <c r="H3" s="152"/>
+      <c r="I3" s="152"/>
     </row>
     <row r="4" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
-      <c r="D4" s="154" t="s">
+      <c r="D4" s="153" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="155"/>
-      <c r="F4" s="156"/>
-      <c r="G4" s="154" t="s">
+      <c r="E4" s="154"/>
+      <c r="F4" s="155"/>
+      <c r="G4" s="153" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="155"/>
-      <c r="I4" s="156"/>
+      <c r="H4" s="154"/>
+      <c r="I4" s="155"/>
       <c r="K4" s="3" t="s">
         <v>4</v>
       </c>
@@ -8033,32 +8033,32 @@
       <c r="I13" s="25"/>
     </row>
     <row r="15" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A15" s="152" t="s">
+      <c r="A15" s="151" t="s">
         <v>38</v>
       </c>
-      <c r="B15" s="153"/>
-      <c r="C15" s="153"/>
-      <c r="D15" s="153"/>
-      <c r="E15" s="153"/>
-      <c r="F15" s="153"/>
-      <c r="G15" s="153"/>
-      <c r="H15" s="153"/>
-      <c r="I15" s="153"/>
+      <c r="B15" s="152"/>
+      <c r="C15" s="152"/>
+      <c r="D15" s="152"/>
+      <c r="E15" s="152"/>
+      <c r="F15" s="152"/>
+      <c r="G15" s="152"/>
+      <c r="H15" s="152"/>
+      <c r="I15" s="152"/>
     </row>
     <row r="16" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
-      <c r="D16" s="154" t="s">
+      <c r="D16" s="153" t="s">
         <v>2</v>
       </c>
-      <c r="E16" s="155"/>
-      <c r="F16" s="157"/>
-      <c r="G16" s="154" t="s">
+      <c r="E16" s="154"/>
+      <c r="F16" s="156"/>
+      <c r="G16" s="153" t="s">
         <v>3</v>
       </c>
-      <c r="H16" s="155"/>
-      <c r="I16" s="156"/>
+      <c r="H16" s="154"/>
+      <c r="I16" s="155"/>
     </row>
     <row r="17" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
@@ -9266,85 +9266,85 @@
   <sheetData>
     <row r="2" spans="1:33" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A2" s="71"/>
-      <c r="B2" s="161" t="s">
+      <c r="B2" s="160" t="s">
         <v>78</v>
       </c>
-      <c r="C2" s="162"/>
-      <c r="D2" s="162"/>
-      <c r="E2" s="162"/>
-      <c r="F2" s="162"/>
-      <c r="G2" s="162"/>
-      <c r="H2" s="162"/>
-      <c r="I2" s="162"/>
-      <c r="J2" s="162"/>
-      <c r="K2" s="162"/>
-      <c r="L2" s="162"/>
-      <c r="M2" s="162"/>
-      <c r="N2" s="162"/>
-      <c r="O2" s="162"/>
-      <c r="P2" s="162"/>
-      <c r="Q2" s="163"/>
-      <c r="R2" s="164" t="s">
+      <c r="C2" s="161"/>
+      <c r="D2" s="161"/>
+      <c r="E2" s="161"/>
+      <c r="F2" s="161"/>
+      <c r="G2" s="161"/>
+      <c r="H2" s="161"/>
+      <c r="I2" s="161"/>
+      <c r="J2" s="161"/>
+      <c r="K2" s="161"/>
+      <c r="L2" s="161"/>
+      <c r="M2" s="161"/>
+      <c r="N2" s="161"/>
+      <c r="O2" s="161"/>
+      <c r="P2" s="161"/>
+      <c r="Q2" s="162"/>
+      <c r="R2" s="163" t="s">
         <v>79</v>
       </c>
-      <c r="S2" s="162"/>
-      <c r="T2" s="162"/>
-      <c r="U2" s="162"/>
-      <c r="V2" s="162"/>
-      <c r="W2" s="162"/>
-      <c r="X2" s="162"/>
-      <c r="Y2" s="162"/>
-      <c r="Z2" s="162"/>
-      <c r="AA2" s="162"/>
-      <c r="AB2" s="162"/>
-      <c r="AC2" s="162"/>
-      <c r="AD2" s="162"/>
-      <c r="AE2" s="162"/>
-      <c r="AF2" s="162"/>
-      <c r="AG2" s="163"/>
+      <c r="S2" s="161"/>
+      <c r="T2" s="161"/>
+      <c r="U2" s="161"/>
+      <c r="V2" s="161"/>
+      <c r="W2" s="161"/>
+      <c r="X2" s="161"/>
+      <c r="Y2" s="161"/>
+      <c r="Z2" s="161"/>
+      <c r="AA2" s="161"/>
+      <c r="AB2" s="161"/>
+      <c r="AC2" s="161"/>
+      <c r="AD2" s="161"/>
+      <c r="AE2" s="161"/>
+      <c r="AF2" s="161"/>
+      <c r="AG2" s="162"/>
     </row>
     <row r="3" spans="1:33" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A3" s="72"/>
-      <c r="B3" s="161" t="s">
+      <c r="B3" s="160" t="s">
         <v>80</v>
       </c>
-      <c r="C3" s="162"/>
-      <c r="D3" s="162"/>
-      <c r="E3" s="162"/>
-      <c r="F3" s="162"/>
-      <c r="G3" s="162"/>
-      <c r="H3" s="162"/>
-      <c r="I3" s="163"/>
-      <c r="J3" s="165" t="s">
+      <c r="C3" s="161"/>
+      <c r="D3" s="161"/>
+      <c r="E3" s="161"/>
+      <c r="F3" s="161"/>
+      <c r="G3" s="161"/>
+      <c r="H3" s="161"/>
+      <c r="I3" s="162"/>
+      <c r="J3" s="164" t="s">
         <v>81</v>
       </c>
-      <c r="K3" s="162"/>
-      <c r="L3" s="162"/>
-      <c r="M3" s="162"/>
-      <c r="N3" s="162"/>
-      <c r="O3" s="162"/>
-      <c r="P3" s="162"/>
-      <c r="Q3" s="163"/>
-      <c r="R3" s="164" t="s">
+      <c r="K3" s="161"/>
+      <c r="L3" s="161"/>
+      <c r="M3" s="161"/>
+      <c r="N3" s="161"/>
+      <c r="O3" s="161"/>
+      <c r="P3" s="161"/>
+      <c r="Q3" s="162"/>
+      <c r="R3" s="163" t="s">
         <v>80</v>
       </c>
-      <c r="S3" s="162"/>
-      <c r="T3" s="162"/>
-      <c r="U3" s="162"/>
-      <c r="V3" s="162"/>
-      <c r="W3" s="162"/>
-      <c r="X3" s="162"/>
-      <c r="Y3" s="163"/>
-      <c r="Z3" s="164" t="s">
+      <c r="S3" s="161"/>
+      <c r="T3" s="161"/>
+      <c r="U3" s="161"/>
+      <c r="V3" s="161"/>
+      <c r="W3" s="161"/>
+      <c r="X3" s="161"/>
+      <c r="Y3" s="162"/>
+      <c r="Z3" s="163" t="s">
         <v>81</v>
       </c>
-      <c r="AA3" s="162"/>
-      <c r="AB3" s="162"/>
-      <c r="AC3" s="162"/>
-      <c r="AD3" s="162"/>
-      <c r="AE3" s="162"/>
-      <c r="AF3" s="162"/>
-      <c r="AG3" s="163"/>
+      <c r="AA3" s="161"/>
+      <c r="AB3" s="161"/>
+      <c r="AC3" s="161"/>
+      <c r="AD3" s="161"/>
+      <c r="AE3" s="161"/>
+      <c r="AF3" s="161"/>
+      <c r="AG3" s="162"/>
     </row>
     <row r="4" spans="1:33" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A4" s="73"/>
@@ -37347,8 +37347,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:K1083"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="C58" sqref="C1:C1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A95" workbookViewId="0">
+      <selection activeCell="E111" sqref="E111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -37425,10 +37425,10 @@
       <c r="B4" s="128" t="s">
         <v>82</v>
       </c>
-      <c r="C4" s="151">
+      <c r="C4" s="165">
         <v>42490</v>
       </c>
-      <c r="D4" s="151">
+      <c r="D4" s="165">
         <v>42490</v>
       </c>
       <c r="E4" s="128"/>
